--- a/2-2.H-refactor/forces.xlsx
+++ b/2-2.H-refactor/forces.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\homework\2-2.H-refactor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\homework\waterball-design-pattern-course\2-2.H-refactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,19 +144,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>78231</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>86537</xdr:rowOff>
+      <xdr:colOff>283743</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>15756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="4" name="圖片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -169,17 +169,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1181100"/>
-          <a:ext cx="14556231" cy="5820587"/>
+          <a:off x="381000" y="7225393"/>
+          <a:ext cx="14870600" cy="5649113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -187,19 +182,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>51012</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>86582</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>598024</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>198115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPr id="8" name="圖片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -212,8 +207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="500743" y="7413171"/>
-          <a:ext cx="14518126" cy="6144482"/>
+          <a:off x="449036" y="1265464"/>
+          <a:ext cx="14436488" cy="5668187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Y31:AA45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB50" sqref="AB50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
